--- a/Web/PIH_merge.xlsx
+++ b/Web/PIH_merge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\프로젝트\0824 데이터 정리(DB)\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\dataflood\dataflood\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAA97A-9A14-4B5E-B4F8-5CEC8C82CA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0431AF-D5FF-45EB-8F27-23B23B227490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1005" windowWidth="17595" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="6090" windowWidth="17595" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,11 +494,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
@@ -796,5 +797,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>